--- a/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
+++ b/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Programming\portfolio\portfolio03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Programming\portfolio\portfolio03\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CAEEB3-8D40-4D33-B75E-FF10D246A9FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C260B6-ECD4-4BBB-BC11-5F394025CBC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="758" xr2:uid="{B05C7E66-E09C-40F0-8B2A-CC0F0D5A8C2E}"/>
   </bookViews>
@@ -46,6 +46,7 @@
     <sheet name="レイアウト_ToDo詳細表示画面" sheetId="32" r:id="rId31"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$I$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">History!$A$1:$C$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル設計!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="30">レイアウト_ToDo詳細表示画面!$A$1:$J$78</definedName>
@@ -1032,10 +1033,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(利用者or管理者を選択する）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ登録機能</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,14 +1061,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者/管理者</t>
-  </si>
-  <si>
     <t>管理者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用者</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1842,6 +1832,18 @@
     <rPh sb="179" eb="180">
       <t>オコナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ユーザor管理者を選択する）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ/管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1907,7 +1909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2047,15 +2049,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2112,31 +2105,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2169,13 +2147,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2183,8 +2176,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2858,22 +2851,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
+      <xdr:colOff>44824</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>206997</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>23434</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33012FF4-5A22-4318-BEAD-52080ED35802}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F86DED-F780-4D73-BA65-29F4B0DFC70C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,8 +2888,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="806824" y="739588"/>
-          <a:ext cx="5255558" cy="3467909"/>
+          <a:off x="392206" y="739588"/>
+          <a:ext cx="5334000" cy="3519670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2908,22 +2901,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>58068</xdr:colOff>
+      <xdr:colOff>60353</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>183619</xdr:rowOff>
+      <xdr:rowOff>161205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>627529</xdr:colOff>
+      <xdr:colOff>638735</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
+      <xdr:rowOff>206693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92A7124-A312-4F03-A3FD-BA673A212095}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED5502A-E00F-4121-A202-EBCBADA0404E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2945,8 +2938,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="58068" y="5125413"/>
-          <a:ext cx="6385314" cy="3570352"/>
+          <a:off x="60353" y="5102999"/>
+          <a:ext cx="6394235" cy="3575341"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5000,13 +4993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7107ED0-BA52-4BCC-B676-35520D163A00}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5015,10 +5008,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5027,10 +5019,9 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -5039,10 +5030,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -5051,10 +5041,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -5063,10 +5052,9 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5075,10 +5063,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -5087,62 +5074,57 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5151,10 +5133,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5163,10 +5144,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5175,10 +5155,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5187,10 +5166,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -5199,10 +5177,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -5211,10 +5188,9 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -5223,10 +5199,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -5235,10 +5210,9 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -5247,10 +5221,9 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -5259,10 +5232,9 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -5271,10 +5243,9 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5283,10 +5254,9 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -5295,10 +5265,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5307,10 +5276,9 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5319,10 +5287,9 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5331,10 +5298,9 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5343,10 +5309,9 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5355,10 +5320,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5367,62 +5331,57 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="28">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="23">
         <v>44234</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="31"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="32" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="26"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="29"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5431,10 +5390,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -5443,10 +5401,9 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -5455,10 +5412,9 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -5467,10 +5423,9 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5479,15 +5434,14 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A8:J9"/>
-    <mergeCell ref="A10:J11"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="A8:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A31:I32"/>
+    <mergeCell ref="A33:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5497,10 +5451,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C556F88F-33F3-49C2-B9AE-73CA7D492732}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5518,22 +5472,23 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A29:J29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5546,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA45EC5-23D3-44FE-9826-5DF7DFE1A231}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5561,17 +5516,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14"/>
@@ -5599,18 +5554,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -5622,24 +5578,25 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="17" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="31"/>
+      <c r="D62" s="31"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B62:J62"/>
     <mergeCell ref="B2:J2"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A62:J62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5652,9 +5609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F40E7ED-E300-40C0-9E17-35E391534C35}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5671,22 +5626,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5700,7 +5656,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A32" sqref="A32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5718,22 +5674,23 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="A32:J32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5746,9 +5703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D27095-D898-49C6-947D-53AC78254391}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5765,22 +5720,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="17" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A30:J30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5793,9 +5749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94CC6E-BD07-4ED9-B40B-816800972854}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5817,18 +5771,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
@@ -5837,26 +5792,26 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="B60" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B60:J60"/>
+    <mergeCell ref="A28:J28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5869,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E743DA-8274-4F5F-9ABA-3D9F40C275FB}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5889,18 +5844,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5918,7 +5873,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="B2" sqref="B2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5934,60 +5889,62 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="17" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B34:J34"/>
     <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A34:J34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6001,7 +5958,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A4" sqref="A4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6021,42 +5978,44 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="A4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6064,245 +6023,260 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
       <c r="H6" s="10" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="H7" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
       <c r="H8" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="10" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>10</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>11</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="37"/>
+      <c r="E16" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>12</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="37"/>
+      <c r="E17" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="B20:I20"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="C15:D15"/>
@@ -6318,21 +6292,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6345,7 +6304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172754-F764-48F5-8812-6CE08F230582}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -6357,41 +6316,41 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -6414,32 +6373,32 @@
       <c r="J6" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="A30" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="A63" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6613,7 +6572,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6624,49 +6583,49 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6697,313 +6656,313 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="31" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7034,313 +6993,313 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7371,291 +7330,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="A25" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="A60" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7686,291 +7645,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="31" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8001,291 +7960,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8316,291 +8275,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="31" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="31"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8631,291 +8590,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="A67" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8946,291 +8905,291 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="A31" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="A73" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9261,280 +9220,280 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+    </row>
+    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="31" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-    </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9567,72 +9526,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="B2" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
@@ -9645,149 +9604,149 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -9799,24 +9758,25 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="17" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:J7"/>
     <mergeCell ref="B10:J22"/>
-    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9841,281 +9801,281 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="A34" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="A76" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10146,281 +10106,281 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="B2" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="A28" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="A65" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10439,9 +10399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4981AE8C-6ABC-48CA-A720-93F9857A81A2}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10456,187 +10414,189 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C19" s="20" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19" t="s">
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I21" s="32"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="19" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="19" t="s">
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I24" s="32"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C25" s="10">
         <v>6</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B2:J3"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A18:J18"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B2:J3"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10649,9 +10609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE98FF1-2A8D-4B69-98A0-6D56C459345E}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10674,17 +10632,18 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
@@ -10707,23 +10666,24 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="17" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10737,7 +10697,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10755,20 +10715,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="17" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -10781,7 +10742,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="A37:J37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10795,7 +10756,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A25" sqref="A25:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10813,22 +10774,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10841,9 +10803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409CBAF-922D-4C8E-841C-839D9DA93105}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10860,22 +10820,23 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="17" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="A39:J39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10888,8 +10849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40894662-4F4A-4F97-904B-1D40DCABEF05}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10913,17 +10874,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -10935,23 +10897,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="17" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A38:J38"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
+++ b/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Programming\portfolio\portfolio03\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C260B6-ECD4-4BBB-BC11-5F394025CBC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85B349-7E33-4C83-9623-272D778EE14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="758" xr2:uid="{B05C7E66-E09C-40F0-8B2A-CC0F0D5A8C2E}"/>
   </bookViews>
@@ -67,8 +67,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="11">動的振る舞い_ToDo登録機能!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">動的振る舞い_ToDo表示機能!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">動的振る舞い_ToDo編集機能!$A$1:$J$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">動的振る舞い_ログイン・ログアウト機能!$A$1:$J$78</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">動的振る舞い_管理者ログイン・ログアウト機能!$A$1:$J$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">動的振る舞い_ログイン・ログアウト機能!$A$1:$J$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">動的振る舞い_管理者ログイン・ログアウト機能!$A$1:$J$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目的・背景!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">要件定義!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">要件定義_ToDo全表示機能!$A$1:$J$39</definedName>
@@ -182,12 +182,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　ToDoListの開発に至ったきっかけは、開発者の所属している企業の業務の進め方に疑問を感じたことである。
-　開発者の所属している企業では、自身のすべき業務の期限や重要度を把握せずに業務を行っている社員が数多く存在していた。また、組織の管理者においても、組織に所属する社員の業務内容を把握しておらず、マネジメントがうまく機能していないケースが見受けられた。また、組織開発においても、各組織が抱えている業務と人員配置（人数、力量の両面）が一致していないケースが散見された。
-　ToDoListを活用することで、社員は自身の抱えている業務の期限や重要度を把握し、効率的な業務遂行の実現に繋げることができる。また、組織の管理者においても、各社員の抱える業務を正確に把握することで適切なマネジメントを行うことができる。組織開発においても、各組織が抱える業務から人員配置を決定することができ、最大限の成果を上げるための組織の構築に繋げることができる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>図4-1　ToDoListの要求図</t>
     <rPh sb="0" eb="1">
       <t>ズ</t>
@@ -1844,6 +1838,72 @@
   </si>
   <si>
     <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ToDoListの開発に至ったきっかけは、業務の進め方やマネジメント、組織開発はもっと定量的なデータに基づいて行われるべきだと考えたからである。
+　日本の多くの企業では、IT技術の導入が遅れているという課題を抱えている。自身が抱えている業務について期限や重要度を把握せずに、ただ漠然と業務を行っている社員が数多く存在している。組織の管理者においても、組織に所属する社員の業務内容を把握しておらず、マネジメントがうまく機能していないケースが見受けられる。また、組織開発においても、各組織が抱えている業務と人員配置（人数、力量の両面）が一致していないケースが散見される。
+　今回開発したToDoListを活用することで、社員は自身の抱えている業務の期限や重要度を把握し、効率的な業務遂行の実現に繋げることができる。また、組織の管理者においても、各社員の抱える業務を正確に把握することで適切なマネジメントを行うことができる。組織開発においても、各組織が抱える業務から人員配置を決定することができ、最大限の成果を上げるための組織の構築に繋げることができる。</t>
+    <rPh sb="22" eb="24">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>テイリョウテキ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>カカ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>バクゼン</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="288" eb="290">
+      <t>カイハツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2155,6 +2215,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2164,20 +2227,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2477,13 +2537,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>197211</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>13605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>639535</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>4907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2745,16 +2805,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168087</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>167291</xdr:rowOff>
+      <xdr:rowOff>156085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2783,7 +2843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="56028" y="1714501"/>
+          <a:off x="515469" y="1703295"/>
           <a:ext cx="5782237" cy="4806525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2851,15 +2911,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:colOff>537883</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>23434</xdr:rowOff>
+      <xdr:rowOff>45845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2888,7 +2948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392206" y="739588"/>
+          <a:off x="885265" y="761999"/>
           <a:ext cx="5334000" cy="3519670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2955,14 +3015,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>345906</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>491584</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>22414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>504266</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>4420</xdr:rowOff>
     </xdr:to>
@@ -2993,7 +3053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="345906" y="728385"/>
+          <a:off x="838966" y="728385"/>
           <a:ext cx="5481153" cy="6100417"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3116,13 +3176,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>682570</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447246</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
@@ -3153,7 +3213,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392206" y="750794"/>
+          <a:off x="840441" y="750794"/>
           <a:ext cx="5422658" cy="5390030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3221,15 +3281,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
+      <xdr:colOff>448236</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129487</xdr:rowOff>
+      <xdr:rowOff>151899</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3258,7 +3318,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392205" y="773206"/>
+          <a:off x="829235" y="795618"/>
           <a:ext cx="5434854" cy="4533399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3326,13 +3386,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>459442</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>206506</xdr:rowOff>
     </xdr:to>
@@ -3363,7 +3423,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381000" y="750794"/>
+          <a:off x="806824" y="750794"/>
           <a:ext cx="5423647" cy="5338800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3431,15 +3491,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
+      <xdr:colOff>526678</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>660861</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>470361</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>201707</xdr:rowOff>
+      <xdr:rowOff>224119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3468,7 +3528,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="381001" y="750795"/>
+          <a:off x="874060" y="773207"/>
           <a:ext cx="5412154" cy="5334000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3536,13 +3596,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>470648</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>219654</xdr:rowOff>
     </xdr:to>
@@ -3573,7 +3633,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="369794" y="739588"/>
+          <a:off x="818030" y="739588"/>
           <a:ext cx="5434853" cy="5833801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3641,13 +3701,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>504265</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>653612</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>451906</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
@@ -3678,7 +3738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="369794" y="728383"/>
+          <a:off x="851647" y="728383"/>
           <a:ext cx="5416112" cy="6028764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3746,13 +3806,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>86222</xdr:colOff>
+      <xdr:colOff>568075</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618055</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416349</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
@@ -3783,7 +3843,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="433604" y="605119"/>
+          <a:off x="915457" y="605119"/>
           <a:ext cx="5316745" cy="6275293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3851,13 +3911,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>112060</xdr:colOff>
+      <xdr:colOff>582707</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>672353</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>13779</xdr:rowOff>
     </xdr:to>
@@ -3888,7 +3948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="459442" y="773207"/>
+          <a:off x="930089" y="773207"/>
           <a:ext cx="5345205" cy="4182366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3956,13 +4016,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
+      <xdr:colOff>672353</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>617609</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>460726</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3993,7 +4053,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="493059" y="750794"/>
+          <a:off x="1019735" y="750794"/>
           <a:ext cx="5256844" cy="6779559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4061,13 +4121,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
+      <xdr:colOff>481853</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>62557</xdr:rowOff>
     </xdr:to>
@@ -4098,7 +4158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="369794" y="750795"/>
+          <a:off x="829235" y="750795"/>
           <a:ext cx="5423647" cy="5430174"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4647,13 +4707,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>45358</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>229054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>139954</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4995,7 +5055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7107ED0-BA52-4BCC-B676-35520D163A00}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -5464,17 +5524,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -5499,11 +5559,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA45EC5-23D3-44FE-9826-5DF7DFE1A231}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:J62"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5512,12 +5570,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -5541,22 +5599,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -5568,35 +5626,35 @@
       <c r="I32" s="31"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A63:J63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5618,17 +5676,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -5666,17 +5724,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -5712,17 +5770,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -5747,7 +5805,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E94CC6E-BD07-4ED9-B40B-816800972854}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
@@ -5758,22 +5816,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -5785,32 +5843,32 @@
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B61" s="31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
     <mergeCell ref="A28:J28"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -5835,17 +5893,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -5885,12 +5943,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -5914,7 +5972,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -5928,7 +5986,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -5957,9 +6015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A03FD7-9670-4BFC-99DF-6DE530E41E9F}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5974,12 +6030,12 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -5990,33 +6046,33 @@
       <c r="I2" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
+      <c r="A4" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -6024,16 +6080,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -6041,16 +6097,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -6058,16 +6114,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
       <c r="H8" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -6075,16 +6131,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="H9" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -6092,16 +6148,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
       <c r="H10" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -6109,16 +6165,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
       <c r="H11" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
@@ -6126,16 +6182,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
       <c r="H12" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -6143,16 +6199,16 @@
         <v>8</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
       <c r="H13" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -6160,16 +6216,16 @@
         <v>9</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
       <c r="H14" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -6177,16 +6233,16 @@
         <v>10</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
       <c r="H15" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
@@ -6194,16 +6250,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
       <c r="H16" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
@@ -6211,22 +6267,22 @@
         <v>12</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
       <c r="H17" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -6248,7 +6304,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -6261,6 +6317,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="C5:D5"/>
@@ -6277,21 +6348,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E8:G8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6304,9 +6360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B172754-F764-48F5-8812-6CE08F230582}">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6316,12 +6370,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -6345,36 +6399,36 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="39" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -6388,7 +6442,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" s="31"/>
       <c r="C63" s="31"/>
@@ -6571,9 +6625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35DD8AE6-B1F5-4DAB-847E-9B09FAFB1844}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6583,25 +6635,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -6615,7 +6667,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -6644,9 +6696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B799DC-77D5-49A6-8A35-1649471880BF}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6656,21 +6706,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -6938,7 +6988,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -6952,7 +7002,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -6981,9 +7031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F2D09B0-98C9-4DEC-936F-56D73D7DDE15}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6993,21 +7041,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -7275,7 +7323,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -7289,7 +7337,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -7318,9 +7366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0DE416-210A-45BB-B655-2454DE4FC06E}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7330,21 +7376,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -7590,7 +7636,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -7604,7 +7650,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="31"/>
@@ -7645,21 +7691,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -7905,7 +7951,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -7919,7 +7965,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -7948,9 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AEE5679-CD28-4A40-8565-57470CB518BE}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7960,21 +8004,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -8220,7 +8264,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -8234,7 +8278,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="31"/>
@@ -8263,9 +8307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61888F0-18EB-42D6-B0E5-3F7EB0B626D6}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8275,21 +8317,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -8535,7 +8577,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -8549,7 +8591,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B66" s="31"/>
       <c r="C66" s="31"/>
@@ -8578,9 +8620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBD8C44-87AF-4D42-9249-56EAB4171B6F}">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8590,21 +8630,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -8850,7 +8890,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -8864,7 +8904,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" s="31"/>
       <c r="C67" s="31"/>
@@ -8893,9 +8933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A399CE8F-6181-47CF-AF79-A43EE379885E}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8905,21 +8943,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -9165,7 +9203,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -9179,7 +9217,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="31"/>
@@ -9208,9 +9246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44454BB4-64AA-4EEE-BB76-A2797893E5DC}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9220,21 +9256,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -9458,7 +9494,7 @@
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -9483,7 +9519,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="31"/>
@@ -9512,7 +9548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906CDDD-76E6-40EC-B28A-2D656FA7406A}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9527,7 +9565,7 @@
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -9605,7 +9643,7 @@
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="30" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -9755,7 +9793,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B25" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -9789,9 +9827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F28B13-F143-4E07-A0C5-9CC09D429573}">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9801,21 +9837,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -10051,7 +10087,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -10065,7 +10101,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="31"/>
@@ -10094,9 +10130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08DC08-DCB4-43E6-9AD8-348624817321}">
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10106,21 +10140,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="19"/>
@@ -10356,7 +10390,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -10370,7 +10404,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="31"/>
@@ -10415,7 +10449,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
@@ -10439,7 +10473,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -10453,7 +10487,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -10467,31 +10501,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="36"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" s="10">
         <v>1</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
       <c r="H20" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="32"/>
     </row>
@@ -10500,13 +10534,13 @@
         <v>2</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
       <c r="H21" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="32"/>
     </row>
@@ -10515,13 +10549,13 @@
         <v>3</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
       <c r="H22" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="32"/>
     </row>
@@ -10529,14 +10563,14 @@
       <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
+      <c r="D23" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="32"/>
     </row>
@@ -10544,14 +10578,14 @@
       <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
+      <c r="D24" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I24" s="32"/>
     </row>
@@ -10560,13 +10594,13 @@
         <v>6</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
       <c r="H25" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I25" s="32"/>
     </row>
@@ -10580,6 +10614,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H24:I24"/>
     <mergeCell ref="D25:G25"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="D21:G21"/>
@@ -10596,7 +10631,6 @@
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10618,22 +10652,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -10658,17 +10692,17 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -10707,17 +10741,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -10766,17 +10800,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -10812,17 +10846,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
@@ -10860,22 +10894,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -10889,17 +10923,17 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>

--- a/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
+++ b/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Programming\portfolio\portfolio03\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D85B349-7E33-4C83-9623-272D778EE14A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D682087-1335-45F4-9A20-42CEE86FDEAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="758" xr2:uid="{B05C7E66-E09C-40F0-8B2A-CC0F0D5A8C2E}"/>
   </bookViews>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>ToDoList</t>
     <phoneticPr fontId="1"/>
@@ -1903,6 +1903,16 @@
     </rPh>
     <rPh sb="288" eb="290">
       <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録機能</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2115,7 +2125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2163,9 +2173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2265,23 +2272,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>30892</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>630106</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>396876</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>208718</xdr:rowOff>
+      <xdr:rowOff>227934</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ED341F4-4C00-4410-8E41-1C61D0DC2BBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACADD1CE-3452-466A-898E-E9688F27BC19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,8 +2310,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1062767" y="6238875"/>
-          <a:ext cx="4461734" cy="2542343"/>
+          <a:off x="973006" y="6229349"/>
+          <a:ext cx="4646744" cy="2571085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5137,52 +5144,52 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
@@ -5394,52 +5401,52 @@
       <c r="I30" s="6"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>44234</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
@@ -5533,18 +5540,18 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5574,17 +5581,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="14"/>
@@ -5613,18 +5620,18 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -5637,18 +5644,18 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5685,18 +5692,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5733,18 +5740,18 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5779,18 +5786,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5830,18 +5837,18 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
@@ -5854,17 +5861,17 @@
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5902,18 +5909,18 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5947,56 +5954,56 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6034,44 +6041,44 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="17" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6079,15 +6086,15 @@
       <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="10" t="s">
         <v>170</v>
       </c>
@@ -6096,15 +6103,15 @@
       <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="10" t="s">
         <v>171</v>
       </c>
@@ -6113,15 +6120,15 @@
       <c r="B8" s="10">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
       <c r="H8" s="10" t="s">
         <v>171</v>
       </c>
@@ -6130,15 +6137,15 @@
       <c r="B9" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="32" t="s">
+      <c r="D9" s="36"/>
+      <c r="E9" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
       <c r="H9" s="10" t="s">
         <v>171</v>
       </c>
@@ -6147,15 +6154,15 @@
       <c r="B10" s="10">
         <v>5</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="32" t="s">
+      <c r="D10" s="36"/>
+      <c r="E10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
       <c r="H10" s="10" t="s">
         <v>171</v>
       </c>
@@ -6164,15 +6171,15 @@
       <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="32" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
       <c r="H11" s="10" t="s">
         <v>171</v>
       </c>
@@ -6181,15 +6188,15 @@
       <c r="B12" s="10">
         <v>7</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="32" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="10" t="s">
         <v>171</v>
       </c>
@@ -6198,15 +6205,15 @@
       <c r="B13" s="10">
         <v>8</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="10" t="s">
         <v>171</v>
       </c>
@@ -6215,15 +6222,15 @@
       <c r="B14" s="10">
         <v>9</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="32" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="10" t="s">
         <v>171</v>
       </c>
@@ -6232,15 +6239,15 @@
       <c r="B15" s="10">
         <v>10</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="32" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="10" t="s">
         <v>107</v>
       </c>
@@ -6249,15 +6256,15 @@
       <c r="B16" s="10">
         <v>11</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="32" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="10" t="s">
         <v>107</v>
       </c>
@@ -6266,72 +6273,57 @@
       <c r="B17" s="10">
         <v>12</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="32" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="10" t="s">
         <v>107</v>
       </c>
       <c r="I17" s="13"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="C5:D5"/>
@@ -6348,6 +6340,21 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6374,28 +6381,28 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -6403,56 +6410,56 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="31" t="s">
+      <c r="A63" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6639,45 +6646,45 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6710,309 +6717,309 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7045,309 +7052,309 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7380,287 +7387,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="31" t="s">
+      <c r="A60" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7695,287 +7702,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8008,287 +8015,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="31" t="s">
+      <c r="A64" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8321,287 +8328,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8634,287 +8641,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8947,287 +8954,287 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9260,276 +9267,276 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="31" t="s">
+      <c r="A59" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9548,9 +9555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E906CDDD-76E6-40EC-B28A-2D656FA7406A}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9564,72 +9569,72 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
@@ -9642,149 +9647,149 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -9797,18 +9802,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9841,277 +9846,277 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="31" t="s">
+      <c r="A76" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10144,277 +10149,277 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="31" t="s">
+      <c r="A65" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10433,7 +10438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4981AE8C-6ABC-48CA-A720-93F9857A81A2}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="115" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10448,177 +10455,181 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="33"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32" t="s">
+      <c r="D20" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="32"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32" t="s">
+      <c r="D21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="32"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32" t="s">
+      <c r="D22" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="32"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="32" t="s">
+      <c r="D23" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="32"/>
+      <c r="I23" s="35"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="32"/>
+      <c r="D24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="35"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C25" s="10">
         <v>6</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="10">
+        <v>7</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
+      <c r="I26" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:I21"/>
+  <mergeCells count="19">
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="B2:J3"/>
     <mergeCell ref="D19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -10626,6 +10637,11 @@
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A18:J18"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="H23:I23"/>
@@ -10666,18 +10682,18 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B23" s="15"/>
@@ -10701,18 +10717,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -10750,18 +10766,18 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B38" s="15"/>
@@ -10809,18 +10825,18 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10855,18 +10871,18 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10908,18 +10924,18 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
@@ -10932,18 +10948,18 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
+++ b/portfolio03/01/ToDoList_要件定義・基本設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Programming\portfolio\portfolio03\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D682087-1335-45F4-9A20-42CEE86FDEAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D1E4A5-6489-4079-8F39-33E567E1C779}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="758" xr2:uid="{B05C7E66-E09C-40F0-8B2A-CC0F0D5A8C2E}"/>
   </bookViews>
@@ -47,7 +47,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$I$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">History!$A$1:$C$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">テーブル設計!$A$1:$J$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="30">レイアウト_ToDo詳細表示画面!$A$1:$J$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="29">レイアウト_ToDo全表示画面!$A$1:$J$78</definedName>
@@ -2219,12 +2218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2232,6 +2225,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5062,7 +5061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7107ED0-BA52-4BCC-B676-35520D163A00}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -5402,7 +5403,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="22">
-        <v>44234</v>
+        <v>44275</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -6069,15 +6070,15 @@
       <c r="B5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
@@ -6090,11 +6091,11 @@
         <v>88</v>
       </c>
       <c r="D6" s="36"/>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
       <c r="H6" s="10" t="s">
         <v>170</v>
       </c>
@@ -6107,11 +6108,11 @@
         <v>99</v>
       </c>
       <c r="D7" s="36"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="10" t="s">
         <v>171</v>
       </c>
@@ -6124,11 +6125,11 @@
         <v>89</v>
       </c>
       <c r="D8" s="36"/>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="10" t="s">
         <v>171</v>
       </c>
@@ -6141,11 +6142,11 @@
         <v>90</v>
       </c>
       <c r="D9" s="36"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="10" t="s">
         <v>171</v>
       </c>
@@ -6158,11 +6159,11 @@
         <v>91</v>
       </c>
       <c r="D10" s="36"/>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="10" t="s">
         <v>171</v>
       </c>
@@ -6175,11 +6176,11 @@
         <v>92</v>
       </c>
       <c r="D11" s="36"/>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="10" t="s">
         <v>171</v>
       </c>
@@ -6192,11 +6193,11 @@
         <v>94</v>
       </c>
       <c r="D12" s="36"/>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="10" t="s">
         <v>171</v>
       </c>
@@ -6209,11 +6210,11 @@
         <v>95</v>
       </c>
       <c r="D13" s="36"/>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="10" t="s">
         <v>171</v>
       </c>
@@ -6226,11 +6227,11 @@
         <v>93</v>
       </c>
       <c r="D14" s="36"/>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="10" t="s">
         <v>171</v>
       </c>
@@ -6243,11 +6244,11 @@
         <v>96</v>
       </c>
       <c r="D15" s="36"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="10" t="s">
         <v>107</v>
       </c>
@@ -6260,11 +6261,11 @@
         <v>97</v>
       </c>
       <c r="D16" s="36"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="10" t="s">
         <v>107</v>
       </c>
@@ -6277,11 +6278,11 @@
         <v>98</v>
       </c>
       <c r="D17" s="36"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="10" t="s">
         <v>107</v>
       </c>
@@ -6324,6 +6325,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B33:I33"/>
     <mergeCell ref="C5:D5"/>
@@ -6340,21 +6356,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -6479,9 +6480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DEFD36-990C-4819-AA3D-FD26566501C1}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6510,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="12">
-        <v>44234</v>
+        <v>44275</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>6</v>
@@ -10510,124 +10509,127 @@
       <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32" t="s">
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="32"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C20" s="10">
         <v>1</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C21" s="10">
         <v>2</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C22" s="10">
         <v>3</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="33" t="s">
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="35"/>
+      <c r="I22" s="33"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="33" t="s">
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="35"/>
+      <c r="I23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="33" t="s">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="35"/>
+      <c r="I24" s="33"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C25" s="10">
         <v>6</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="33" t="s">
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="35"/>
+      <c r="I25" s="33"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C26" s="10">
         <v>7</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="33" t="s">
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="35"/>
+      <c r="I26" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="B2:J3"/>
@@ -10644,9 +10646,6 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
